--- a/Code/Results/Cases/Case_0_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_116/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.95860581925649</v>
+        <v>7.719167780743623</v>
       </c>
       <c r="D2">
-        <v>12.63530407478271</v>
+        <v>6.733769805988533</v>
       </c>
       <c r="E2">
-        <v>11.21833175566487</v>
+        <v>9.252933337777126</v>
       </c>
       <c r="F2">
-        <v>69.34602753324035</v>
+        <v>61.39123680782699</v>
       </c>
       <c r="G2">
-        <v>1.931524557477509</v>
+        <v>3.757078435056697</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>52.29895477616295</v>
+        <v>45.26254811337704</v>
       </c>
       <c r="J2">
-        <v>4.816887940729197</v>
+        <v>8.661638453971412</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46.32701189323101</v>
+        <v>35.84339797314053</v>
       </c>
       <c r="N2">
-        <v>16.15991495528572</v>
+        <v>17.02528174367247</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.638406285622962</v>
+        <v>7.73116687017151</v>
       </c>
       <c r="D3">
-        <v>11.58452820003004</v>
+        <v>6.407882797737234</v>
       </c>
       <c r="E3">
-        <v>10.53260645019302</v>
+        <v>9.04764189062735</v>
       </c>
       <c r="F3">
-        <v>63.96672123210635</v>
+        <v>60.75512048053122</v>
       </c>
       <c r="G3">
-        <v>1.967771681830447</v>
+        <v>3.766504137164751</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>47.96512006177278</v>
+        <v>44.74718523391278</v>
       </c>
       <c r="J3">
-        <v>4.899968214554482</v>
+        <v>8.689269159263574</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>42.73106302939925</v>
+        <v>35.00617729778023</v>
       </c>
       <c r="N3">
-        <v>15.7090111065275</v>
+        <v>16.90437494280274</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.46031684414234</v>
+        <v>7.74141508071552</v>
       </c>
       <c r="D4">
-        <v>10.93380161120622</v>
+        <v>6.202125597637469</v>
       </c>
       <c r="E4">
-        <v>10.10802757722505</v>
+        <v>8.918398624291571</v>
       </c>
       <c r="F4">
-        <v>60.83182694420009</v>
+        <v>60.38964547714774</v>
       </c>
       <c r="G4">
-        <v>1.989408024824942</v>
+        <v>3.772557799243368</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>45.5932651417838</v>
+        <v>44.44855158456991</v>
       </c>
       <c r="J4">
-        <v>4.951176904815957</v>
+        <v>8.70710312606283</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>40.46742457931089</v>
+        <v>34.49017388580899</v>
       </c>
       <c r="N4">
-        <v>15.4294994473355</v>
+        <v>16.83224193979358</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.391751065761833</v>
+        <v>7.74630601846193</v>
       </c>
       <c r="D5">
-        <v>10.66600471227332</v>
+        <v>6.116978202065504</v>
       </c>
       <c r="E5">
-        <v>9.933538811805983</v>
+        <v>8.864965892572387</v>
       </c>
       <c r="F5">
-        <v>59.56824784805808</v>
+        <v>60.24710793984875</v>
       </c>
       <c r="G5">
-        <v>1.99813262796977</v>
+        <v>3.775092173187493</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>44.63559453108618</v>
+        <v>44.33141546828637</v>
       </c>
       <c r="J5">
-        <v>4.972167801494463</v>
+        <v>8.714589999584177</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>39.52809793270684</v>
+        <v>34.27969418581768</v>
       </c>
       <c r="N5">
-        <v>15.31511562897871</v>
+        <v>16.80340323175375</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.380591894579285</v>
+        <v>7.747161034651355</v>
       </c>
       <c r="D6">
-        <v>10.62134907971002</v>
+        <v>6.102765020432185</v>
       </c>
       <c r="E6">
-        <v>9.9044631725509</v>
+        <v>8.856048373078275</v>
       </c>
       <c r="F6">
-        <v>59.35914454373896</v>
+        <v>60.22382815162215</v>
       </c>
       <c r="G6">
-        <v>1.999577310297936</v>
+        <v>3.775517093095182</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>44.47701530422124</v>
+        <v>44.31224267923453</v>
       </c>
       <c r="J6">
-        <v>4.975662574658819</v>
+        <v>8.715846467960924</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>39.37103464348135</v>
+        <v>34.24474038299393</v>
       </c>
       <c r="N6">
-        <v>15.29609865934738</v>
+        <v>16.79864894600812</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.459376653947318</v>
+        <v>7.741478160704049</v>
       </c>
       <c r="D7">
-        <v>10.93020200633973</v>
+        <v>6.20098235542252</v>
       </c>
       <c r="E7">
-        <v>10.10568092885094</v>
+        <v>8.917681057702998</v>
       </c>
       <c r="F7">
-        <v>60.81473553205359</v>
+        <v>60.38769716800528</v>
       </c>
       <c r="G7">
-        <v>1.989525990083247</v>
+        <v>3.772591704892084</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.5803181851164</v>
+        <v>44.44695328363666</v>
       </c>
       <c r="J7">
-        <v>4.951459413110274</v>
+        <v>8.707203207079131</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40.45482805301376</v>
+        <v>34.48733572553061</v>
       </c>
       <c r="N7">
-        <v>15.42795852866098</v>
+        <v>16.83185072424887</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.843906959344809</v>
+        <v>7.722701419953141</v>
       </c>
       <c r="D8">
-        <v>12.27329345839332</v>
+        <v>6.622647828723341</v>
       </c>
       <c r="E8">
-        <v>10.98220757647483</v>
+        <v>9.182833746076811</v>
       </c>
       <c r="F8">
-        <v>67.42107634095889</v>
+        <v>61.16674925497711</v>
       </c>
       <c r="G8">
-        <v>1.944195272406976</v>
+        <v>3.760273467120116</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>50.79360915918782</v>
+        <v>45.08120995575432</v>
       </c>
       <c r="J8">
-        <v>4.845543450095039</v>
+        <v>8.670985831236507</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>45.09668985097795</v>
+        <v>35.555296406234</v>
       </c>
       <c r="N8">
-        <v>16.00510874083211</v>
+        <v>16.98317269628054</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.789151067952585</v>
+        <v>7.709160327638885</v>
       </c>
       <c r="D9">
-        <v>14.94630840029371</v>
+        <v>7.529804234442093</v>
       </c>
       <c r="E9">
-        <v>12.71623497658417</v>
+        <v>9.675909704109579</v>
       </c>
       <c r="F9">
-        <v>81.98702177299265</v>
+        <v>62.88919142733415</v>
       </c>
       <c r="G9">
-        <v>1.846099258254384</v>
+        <v>3.738206520038428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>62.09661443026066</v>
+        <v>46.46201891434184</v>
       </c>
       <c r="J9">
-        <v>4.634665165615516</v>
+        <v>8.606810879874899</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>53.95250333900405</v>
+        <v>37.62213675707093</v>
       </c>
       <c r="N9">
-        <v>17.10673702019964</v>
+        <v>17.29540048636253</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.884313082521506</v>
+        <v>7.713967175810203</v>
       </c>
       <c r="D10">
-        <v>17.14778950409271</v>
+        <v>8.166409614226787</v>
       </c>
       <c r="E10">
-        <v>14.11838571357379</v>
+        <v>10.01988239463606</v>
       </c>
       <c r="F10">
-        <v>94.42850732607184</v>
+        <v>64.26646572996549</v>
       </c>
       <c r="G10">
-        <v>1.757488559658667</v>
+        <v>3.72323428119177</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>71.6346913726893</v>
+        <v>47.55373666159723</v>
       </c>
       <c r="J10">
-        <v>4.466579803181253</v>
+        <v>8.563772363081849</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>60.80803025096058</v>
+        <v>39.10881434249271</v>
       </c>
       <c r="N10">
-        <v>17.88058151869587</v>
+        <v>17.53258297322792</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.514937298890898</v>
+        <v>7.719472902337553</v>
       </c>
       <c r="D11">
-        <v>18.32627423199955</v>
+        <v>8.441133479620184</v>
       </c>
       <c r="E11">
-        <v>14.85714723732264</v>
+        <v>10.1720403671635</v>
       </c>
       <c r="F11">
-        <v>101.1771207680656</v>
+        <v>64.91559114158453</v>
       </c>
       <c r="G11">
-        <v>1.707241647912331</v>
+        <v>3.716685025177187</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>76.77934632278675</v>
+        <v>48.06566139902349</v>
       </c>
       <c r="J11">
-        <v>4.381415197513109</v>
+        <v>8.545071789020058</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>64.2935150858295</v>
+        <v>39.77533544944738</v>
       </c>
       <c r="N11">
-        <v>18.21642155879216</v>
+        <v>17.64181705169979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.787605792872565</v>
+        <v>7.722043960760952</v>
       </c>
       <c r="D12">
-        <v>18.8282449446236</v>
+        <v>8.543036762625757</v>
       </c>
       <c r="E12">
-        <v>15.16941549332247</v>
+        <v>10.22901150706671</v>
       </c>
       <c r="F12">
-        <v>104.0598420303728</v>
+        <v>65.16449099293791</v>
       </c>
       <c r="G12">
-        <v>1.685268760106817</v>
+        <v>3.714242026924496</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>78.97224352893583</v>
+        <v>48.26158021613972</v>
       </c>
       <c r="J12">
-        <v>4.346649263967945</v>
+        <v>8.538115503364535</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65.73581871724885</v>
+        <v>40.02610465953984</v>
       </c>
       <c r="N12">
-        <v>18.33920101092961</v>
+        <v>17.68334337503706</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.726791361735076</v>
+        <v>7.721468477418732</v>
       </c>
       <c r="D13">
-        <v>18.71664808552842</v>
+        <v>8.521184567492318</v>
       </c>
       <c r="E13">
-        <v>15.10010979690449</v>
+        <v>10.21677096705595</v>
       </c>
       <c r="F13">
-        <v>103.4187756763804</v>
+        <v>65.11075111417705</v>
       </c>
       <c r="G13">
-        <v>1.690182436352529</v>
+        <v>3.714766531098482</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>78.4847957246502</v>
+        <v>48.2192959826928</v>
       </c>
       <c r="J13">
-        <v>4.354288258954191</v>
+        <v>8.539608111327649</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>65.41742887297725</v>
+        <v>39.97217277465219</v>
       </c>
       <c r="N13">
-        <v>18.31302499249146</v>
+        <v>17.67439323303813</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.536497542587215</v>
+        <v>7.719674631823663</v>
       </c>
       <c r="D14">
-        <v>18.3661202549207</v>
+        <v>8.449559723894946</v>
       </c>
       <c r="E14">
-        <v>14.8819851262076</v>
+        <v>10.17674054559519</v>
       </c>
       <c r="F14">
-        <v>101.4058468923154</v>
+        <v>64.93600728268734</v>
       </c>
       <c r="G14">
-        <v>1.705509674896833</v>
+        <v>3.716483298744047</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>76.95343210684918</v>
+        <v>48.0817391783466</v>
       </c>
       <c r="J14">
-        <v>4.378618642769553</v>
+        <v>8.54449698760215</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>64.40895185259792</v>
+        <v>39.79600021861461</v>
       </c>
       <c r="N14">
-        <v>18.22663429993744</v>
+        <v>17.64523038143216</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.425276160490824</v>
+        <v>7.718639419774312</v>
       </c>
       <c r="D15">
-        <v>18.1602726003119</v>
+        <v>8.405410541057549</v>
       </c>
       <c r="E15">
-        <v>14.75357462921413</v>
+        <v>10.15213563652355</v>
       </c>
       <c r="F15">
-        <v>100.2244987876155</v>
+        <v>64.82936924764398</v>
       </c>
       <c r="G15">
-        <v>1.714434249820319</v>
+        <v>3.717539678114462</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>76.05411441418417</v>
+        <v>47.99774638862268</v>
       </c>
       <c r="J15">
-        <v>4.393130100297201</v>
+        <v>8.547507841764874</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>63.8108624360577</v>
+        <v>39.68787114953473</v>
       </c>
       <c r="N15">
-        <v>18.17303280000868</v>
+        <v>17.62738744617089</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.846441029045081</v>
+        <v>7.713674918549815</v>
       </c>
       <c r="D16">
-        <v>17.07615122156368</v>
+        <v>8.148157313462422</v>
       </c>
       <c r="E16">
-        <v>14.07321104901378</v>
+        <v>10.00984928039018</v>
       </c>
       <c r="F16">
-        <v>94.01965904822347</v>
+        <v>64.22448508269815</v>
       </c>
       <c r="G16">
-        <v>1.760480971486485</v>
+        <v>3.723667508076232</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>71.32245367488702</v>
+        <v>47.52057746144705</v>
       </c>
       <c r="J16">
-        <v>4.471891345772049</v>
+        <v>8.565012067575957</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>60.59182283587785</v>
+        <v>39.06503952230999</v>
       </c>
       <c r="N16">
-        <v>17.85818578221545</v>
+        <v>17.52546857614799</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.527660044449884</v>
+        <v>7.711485874661673</v>
       </c>
       <c r="D17">
-        <v>16.46882622496434</v>
+        <v>7.986538323729131</v>
       </c>
       <c r="E17">
-        <v>13.6889890291709</v>
+        <v>9.921435539764783</v>
       </c>
       <c r="F17">
-        <v>90.56242376357517</v>
+        <v>63.85908442393978</v>
       </c>
       <c r="G17">
-        <v>1.785558414787781</v>
+        <v>3.727493358070421</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>68.67923946231075</v>
+        <v>47.23167218032239</v>
       </c>
       <c r="J17">
-        <v>4.517427556489986</v>
+        <v>8.575974463772743</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>58.73971357787296</v>
+        <v>38.6802851237337</v>
       </c>
       <c r="N17">
-        <v>17.66006346946892</v>
+        <v>17.46326561006358</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.353536112838589</v>
+        <v>7.710538690347814</v>
       </c>
       <c r="D18">
-        <v>16.13363355447282</v>
+        <v>7.892178908713403</v>
       </c>
       <c r="E18">
-        <v>13.47598046577572</v>
+        <v>9.870177422810539</v>
       </c>
       <c r="F18">
-        <v>88.66208852595594</v>
+        <v>63.65105249838352</v>
       </c>
       <c r="G18">
-        <v>1.799174101727781</v>
+        <v>3.729718552006556</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>67.22395859275613</v>
+        <v>47.06694969029641</v>
       </c>
       <c r="J18">
-        <v>4.542905380069016</v>
+        <v>8.582362434580162</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>57.70311789818049</v>
+        <v>38.45807660200021</v>
       </c>
       <c r="N18">
-        <v>17.54475706364088</v>
+        <v>17.42761594216913</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.295900327088145</v>
+        <v>7.710271282364772</v>
       </c>
       <c r="D19">
-        <v>16.02211096346004</v>
+        <v>7.859989635469742</v>
       </c>
       <c r="E19">
-        <v>13.4049620521252</v>
+        <v>9.852753631394551</v>
       </c>
       <c r="F19">
-        <v>88.03121169347693</v>
+        <v>63.58098822318007</v>
       </c>
       <c r="G19">
-        <v>1.803668459948345</v>
+        <v>3.730476217997278</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>66.74042924385958</v>
+        <v>47.01143029487923</v>
       </c>
       <c r="J19">
-        <v>4.551430013198111</v>
+        <v>8.584539524739426</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>57.35601081918276</v>
+        <v>38.38269172085024</v>
       </c>
       <c r="N19">
-        <v>17.50551450285417</v>
+        <v>17.41556846989702</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.560570727599118</v>
+        <v>7.711686556701074</v>
       </c>
       <c r="D20">
-        <v>16.531896620175</v>
+        <v>8.003887816747216</v>
       </c>
       <c r="E20">
-        <v>13.72899389083353</v>
+        <v>9.930889439548183</v>
       </c>
       <c r="F20">
-        <v>90.9206539822994</v>
+        <v>63.89776192471783</v>
       </c>
       <c r="G20">
-        <v>1.782978504551578</v>
+        <v>3.727083541025959</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>68.95337604015232</v>
+        <v>47.26227773222584</v>
       </c>
       <c r="J20">
-        <v>4.512659320030179</v>
+        <v>8.574798947179001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>58.93363020607052</v>
+        <v>38.72133852139552</v>
       </c>
       <c r="N20">
-        <v>17.68130168957495</v>
+        <v>17.46987421460592</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.591203139253253</v>
+        <v>7.720188264415562</v>
       </c>
       <c r="D21">
-        <v>18.46710123255432</v>
+        <v>8.470655362299361</v>
       </c>
       <c r="E21">
-        <v>14.94489180930435</v>
+        <v>10.18851623450745</v>
       </c>
       <c r="F21">
-        <v>101.9855997117169</v>
+        <v>64.9872512121387</v>
       </c>
       <c r="G21">
-        <v>1.701110875029649</v>
+        <v>3.715978041177951</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>77.394614042306</v>
+        <v>48.12208802322039</v>
       </c>
       <c r="J21">
-        <v>4.371558907259854</v>
+        <v>8.543057615999636</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>64.7007745370753</v>
+        <v>39.84779223248614</v>
       </c>
       <c r="N21">
-        <v>18.25216131115486</v>
+        <v>17.65379207261597</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.505577516017052</v>
+        <v>7.728582211324252</v>
       </c>
       <c r="D22">
-        <v>20.131859227327</v>
+        <v>8.763313026046434</v>
       </c>
       <c r="E22">
-        <v>15.97461735059778</v>
+        <v>10.35310366098413</v>
       </c>
       <c r="F22">
-        <v>111.5439569791567</v>
+        <v>65.71722990792533</v>
       </c>
       <c r="G22">
-        <v>1.626700459858672</v>
+        <v>3.708935713638599</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>84.65519582710115</v>
+        <v>48.69599006405193</v>
       </c>
       <c r="J22">
-        <v>4.261911671268213</v>
+        <v>8.523042191586896</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>69.35555590124412</v>
+        <v>40.57441566408314</v>
       </c>
       <c r="N22">
-        <v>18.59414175321469</v>
+        <v>17.77492164221672</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.978107076837906</v>
+        <v>7.723839717157949</v>
       </c>
       <c r="D23">
-        <v>19.17655572047109</v>
+        <v>8.608247243178429</v>
       </c>
       <c r="E23">
-        <v>15.38531906627573</v>
+        <v>10.26561501816244</v>
       </c>
       <c r="F23">
-        <v>106.0609025456088</v>
+        <v>65.32603944993664</v>
       </c>
       <c r="G23">
-        <v>1.669828584605456</v>
+        <v>3.712674785206808</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>80.49305781977806</v>
+        <v>48.3886382449435</v>
       </c>
       <c r="J23">
-        <v>4.323164617996582</v>
+        <v>8.533658403522841</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>66.72110027937286</v>
+        <v>40.18754843694864</v>
       </c>
       <c r="N23">
-        <v>18.41664048455506</v>
+        <v>17.71019767115853</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.545664213855393</v>
+        <v>7.711594859316108</v>
       </c>
       <c r="D24">
-        <v>16.50334054072829</v>
+        <v>7.996048604755752</v>
       </c>
       <c r="E24">
-        <v>13.71088404529525</v>
+        <v>9.926616662129634</v>
       </c>
       <c r="F24">
-        <v>90.75843503275316</v>
+        <v>63.88026945490775</v>
       </c>
       <c r="G24">
-        <v>1.784147300990254</v>
+        <v>3.727268739337976</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>68.82924512305777</v>
+        <v>47.24843667534476</v>
       </c>
       <c r="J24">
-        <v>4.514817156693504</v>
+        <v>8.575330131706076</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>58.84587622114319</v>
+        <v>38.70278140325364</v>
       </c>
       <c r="N24">
-        <v>17.67170415788625</v>
+        <v>17.46688611440916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.504917464824003</v>
+        <v>7.710272028456379</v>
       </c>
       <c r="D25">
-        <v>14.20394803257866</v>
+        <v>7.282127455571493</v>
       </c>
       <c r="E25">
-        <v>12.23742231372003</v>
+        <v>9.545603500828873</v>
       </c>
       <c r="F25">
-        <v>77.86828686166128</v>
+        <v>62.40304315440495</v>
       </c>
       <c r="G25">
-        <v>1.874394962326923</v>
+        <v>3.743955962449536</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>58.91871642756724</v>
+        <v>46.07442038084357</v>
       </c>
       <c r="J25">
-        <v>4.692886507677745</v>
+        <v>8.623445378326547</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>51.54793011082444</v>
+        <v>37.06755431529721</v>
       </c>
       <c r="N25">
-        <v>16.81334682276994</v>
+        <v>17.20944582058611</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_116/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.719167780743623</v>
+        <v>5.958605819256443</v>
       </c>
       <c r="D2">
-        <v>6.733769805988533</v>
+        <v>12.63530407478281</v>
       </c>
       <c r="E2">
-        <v>9.252933337777126</v>
+        <v>11.21833175566492</v>
       </c>
       <c r="F2">
-        <v>61.39123680782699</v>
+        <v>69.34602753324056</v>
       </c>
       <c r="G2">
-        <v>3.757078435056697</v>
+        <v>1.931524557477256</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>45.26254811337704</v>
+        <v>52.29895477616316</v>
       </c>
       <c r="J2">
-        <v>8.661638453971412</v>
+        <v>4.816887940729163</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>35.84339797314053</v>
+        <v>46.32701189323117</v>
       </c>
       <c r="N2">
-        <v>17.02528174367247</v>
+        <v>16.15991495528571</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.73116687017151</v>
+        <v>5.638406285622983</v>
       </c>
       <c r="D3">
-        <v>6.407882797737234</v>
+        <v>11.58452820003007</v>
       </c>
       <c r="E3">
-        <v>9.04764189062735</v>
+        <v>10.5326064501931</v>
       </c>
       <c r="F3">
-        <v>60.75512048053122</v>
+        <v>63.96672123210616</v>
       </c>
       <c r="G3">
-        <v>3.766504137164751</v>
+        <v>1.967771681830566</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>44.74718523391278</v>
+        <v>47.96512006177264</v>
       </c>
       <c r="J3">
-        <v>8.689269159263574</v>
+        <v>4.899968214554483</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.00617729778023</v>
+        <v>42.73106302939913</v>
       </c>
       <c r="N3">
-        <v>16.90437494280274</v>
+        <v>15.70901110652754</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.74141508071552</v>
+        <v>5.46031684414233</v>
       </c>
       <c r="D4">
-        <v>6.202125597637469</v>
+        <v>10.93380161120643</v>
       </c>
       <c r="E4">
-        <v>8.918398624291571</v>
+        <v>10.10802757722524</v>
       </c>
       <c r="F4">
-        <v>60.38964547714774</v>
+        <v>60.83182694420041</v>
       </c>
       <c r="G4">
-        <v>3.772557799243368</v>
+        <v>1.989408024824675</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>44.44855158456991</v>
+        <v>45.59326514178405</v>
       </c>
       <c r="J4">
-        <v>8.70710312606283</v>
+        <v>4.951176904815989</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>34.49017388580899</v>
+        <v>40.46742457931119</v>
       </c>
       <c r="N4">
-        <v>16.83224193979358</v>
+        <v>15.42949944733546</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.74630601846193</v>
+        <v>5.391751065761823</v>
       </c>
       <c r="D5">
-        <v>6.116978202065504</v>
+        <v>10.66600471227329</v>
       </c>
       <c r="E5">
-        <v>8.864965892572387</v>
+        <v>9.933538811805974</v>
       </c>
       <c r="F5">
-        <v>60.24710793984875</v>
+        <v>59.56824784805804</v>
       </c>
       <c r="G5">
-        <v>3.775092173187493</v>
+        <v>1.998132627969892</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>44.33141546828637</v>
+        <v>44.63559453108616</v>
       </c>
       <c r="J5">
-        <v>8.714589999584177</v>
+        <v>4.972167801494461</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>34.27969418581768</v>
+        <v>39.5280979327068</v>
       </c>
       <c r="N5">
-        <v>16.80340323175375</v>
+        <v>15.31511562897871</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.747161034651355</v>
+        <v>5.380591894579285</v>
       </c>
       <c r="D6">
-        <v>6.102765020432185</v>
+        <v>10.62134907971007</v>
       </c>
       <c r="E6">
-        <v>8.856048373078275</v>
+        <v>9.904463172551013</v>
       </c>
       <c r="F6">
-        <v>60.22382815162215</v>
+        <v>59.35914454373916</v>
       </c>
       <c r="G6">
-        <v>3.775517093095182</v>
+        <v>1.999577310298347</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>44.31224267923453</v>
+        <v>44.4770153042214</v>
       </c>
       <c r="J6">
-        <v>8.715846467960924</v>
+        <v>4.975662574658854</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>34.24474038299393</v>
+        <v>39.37103464348145</v>
       </c>
       <c r="N6">
-        <v>16.79864894600812</v>
+        <v>15.29609865934743</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.741478160704049</v>
+        <v>5.459376653947302</v>
       </c>
       <c r="D7">
-        <v>6.20098235542252</v>
+        <v>10.9302020063398</v>
       </c>
       <c r="E7">
-        <v>8.917681057702998</v>
+        <v>10.10568092885104</v>
       </c>
       <c r="F7">
-        <v>60.38769716800528</v>
+        <v>60.81473553205375</v>
       </c>
       <c r="G7">
-        <v>3.772591704892084</v>
+        <v>1.989525990083261</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>44.44695328363666</v>
+        <v>45.58031818511651</v>
       </c>
       <c r="J7">
-        <v>8.707203207079131</v>
+        <v>4.951459413110342</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>34.48733572553061</v>
+        <v>40.45482805301389</v>
       </c>
       <c r="N7">
-        <v>16.83185072424887</v>
+        <v>15.42795852866102</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.722701419953141</v>
+        <v>5.843906959344825</v>
       </c>
       <c r="D8">
-        <v>6.622647828723341</v>
+        <v>12.27329345839323</v>
       </c>
       <c r="E8">
-        <v>9.182833746076811</v>
+        <v>10.98220757647493</v>
       </c>
       <c r="F8">
-        <v>61.16674925497711</v>
+        <v>67.42107634095909</v>
       </c>
       <c r="G8">
-        <v>3.760273467120116</v>
+        <v>1.944195272406988</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>45.08120995575432</v>
+        <v>50.79360915918799</v>
       </c>
       <c r="J8">
-        <v>8.670985831236507</v>
+        <v>4.845543450095142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>35.555296406234</v>
+        <v>45.09668985097806</v>
       </c>
       <c r="N8">
-        <v>16.98317269628054</v>
+        <v>16.00510874083212</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.709160327638885</v>
+        <v>6.789151067952585</v>
       </c>
       <c r="D9">
-        <v>7.529804234442093</v>
+        <v>14.94630840029378</v>
       </c>
       <c r="E9">
-        <v>9.675909704109579</v>
+        <v>12.71623497658418</v>
       </c>
       <c r="F9">
-        <v>62.88919142733415</v>
+        <v>81.98702177299315</v>
       </c>
       <c r="G9">
-        <v>3.738206520038428</v>
+        <v>1.846099258254245</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.46201891434184</v>
+        <v>62.09661443026103</v>
       </c>
       <c r="J9">
-        <v>8.606810879874899</v>
+        <v>4.634665165615488</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>37.62213675707093</v>
+        <v>53.95250333900427</v>
       </c>
       <c r="N9">
-        <v>17.29540048636253</v>
+        <v>17.10673702019961</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.713967175810203</v>
+        <v>7.884313082521423</v>
       </c>
       <c r="D10">
-        <v>8.166409614226787</v>
+        <v>17.1477895040927</v>
       </c>
       <c r="E10">
-        <v>10.01988239463606</v>
+        <v>14.11838571357385</v>
       </c>
       <c r="F10">
-        <v>64.26646572996549</v>
+        <v>94.42850732607248</v>
       </c>
       <c r="G10">
-        <v>3.72323428119177</v>
+        <v>1.757488559658449</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>47.55373666159723</v>
+        <v>71.63469137268979</v>
       </c>
       <c r="J10">
-        <v>8.563772363081849</v>
+        <v>4.466579803181225</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.10881434249271</v>
+        <v>60.80803025096084</v>
       </c>
       <c r="N10">
-        <v>17.53258297322792</v>
+        <v>17.88058151869584</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.719472902337553</v>
+        <v>8.514937298890857</v>
       </c>
       <c r="D11">
-        <v>8.441133479620184</v>
+        <v>18.32627423199936</v>
       </c>
       <c r="E11">
-        <v>10.1720403671635</v>
+        <v>14.85714723732256</v>
       </c>
       <c r="F11">
-        <v>64.91559114158453</v>
+        <v>101.1771207680648</v>
       </c>
       <c r="G11">
-        <v>3.716685025177187</v>
+        <v>1.707241647912382</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.06566139902349</v>
+        <v>76.77934632278622</v>
       </c>
       <c r="J11">
-        <v>8.545071789020058</v>
+        <v>4.381415197513176</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.77533544944738</v>
+        <v>64.29351508582918</v>
       </c>
       <c r="N11">
-        <v>17.64181705169979</v>
+        <v>18.21642155879217</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.722043960760952</v>
+        <v>8.787605792872331</v>
       </c>
       <c r="D12">
-        <v>8.543036762625757</v>
+        <v>18.82824494462315</v>
       </c>
       <c r="E12">
-        <v>10.22901150706671</v>
+        <v>15.16941549332228</v>
       </c>
       <c r="F12">
-        <v>65.16449099293791</v>
+        <v>104.0598420303719</v>
       </c>
       <c r="G12">
-        <v>3.714242026924496</v>
+        <v>1.685268760106914</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.26158021613972</v>
+        <v>78.97224352893514</v>
       </c>
       <c r="J12">
-        <v>8.538115503364535</v>
+        <v>4.346649263968019</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.02610465953984</v>
+        <v>65.73581871724842</v>
       </c>
       <c r="N12">
-        <v>17.68334337503706</v>
+        <v>18.33920101092961</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.721468477418732</v>
+        <v>8.726791361735346</v>
       </c>
       <c r="D13">
-        <v>8.521184567492318</v>
+        <v>18.71664808552876</v>
       </c>
       <c r="E13">
-        <v>10.21677096705595</v>
+        <v>15.10010979690479</v>
       </c>
       <c r="F13">
-        <v>65.11075111417705</v>
+        <v>103.4187756763823</v>
       </c>
       <c r="G13">
-        <v>3.714766531098482</v>
+        <v>1.690182436352328</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.2192959826928</v>
+        <v>78.48479572465172</v>
       </c>
       <c r="J13">
-        <v>8.539608111327649</v>
+        <v>4.354288258954186</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>39.97217277465219</v>
+        <v>65.41742887297811</v>
       </c>
       <c r="N13">
-        <v>17.67439323303813</v>
+        <v>18.3130249924914</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.719674631823663</v>
+        <v>8.53649754258743</v>
       </c>
       <c r="D14">
-        <v>8.449559723894946</v>
+        <v>18.36612025492083</v>
       </c>
       <c r="E14">
-        <v>10.17674054559519</v>
+        <v>14.88198512620761</v>
       </c>
       <c r="F14">
-        <v>64.93600728268734</v>
+        <v>101.405846892316</v>
       </c>
       <c r="G14">
-        <v>3.716483298744047</v>
+        <v>1.70550967489696</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.0817391783466</v>
+        <v>76.95343210684959</v>
       </c>
       <c r="J14">
-        <v>8.54449698760215</v>
+        <v>4.378618642769428</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>39.79600021861461</v>
+        <v>64.40895185259819</v>
       </c>
       <c r="N14">
-        <v>17.64523038143216</v>
+        <v>18.22663429993743</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.718639419774312</v>
+        <v>8.425276160490879</v>
       </c>
       <c r="D15">
-        <v>8.405410541057549</v>
+        <v>18.16027260031196</v>
       </c>
       <c r="E15">
-        <v>10.15213563652355</v>
+        <v>14.75357462921417</v>
       </c>
       <c r="F15">
-        <v>64.82936924764398</v>
+        <v>100.2244987876159</v>
       </c>
       <c r="G15">
-        <v>3.717539678114462</v>
+        <v>1.714434249820486</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.99774638862268</v>
+        <v>76.05411441418451</v>
       </c>
       <c r="J15">
-        <v>8.547507841764874</v>
+        <v>4.393130100297165</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.68787114953473</v>
+        <v>63.81086243605788</v>
       </c>
       <c r="N15">
-        <v>17.62738744617089</v>
+        <v>18.17303280000864</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.713674918549815</v>
+        <v>7.846441029044983</v>
       </c>
       <c r="D16">
-        <v>8.148157313462422</v>
+        <v>17.07615122156366</v>
       </c>
       <c r="E16">
-        <v>10.00984928039018</v>
+        <v>14.07321104901374</v>
       </c>
       <c r="F16">
-        <v>64.22448508269815</v>
+        <v>94.01965904822342</v>
       </c>
       <c r="G16">
-        <v>3.723667508076232</v>
+        <v>1.760480971486484</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>47.52057746144705</v>
+        <v>71.32245367488699</v>
       </c>
       <c r="J16">
-        <v>8.565012067575957</v>
+        <v>4.471891345771982</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.06503952230999</v>
+        <v>60.59182283587789</v>
       </c>
       <c r="N16">
-        <v>17.52546857614799</v>
+        <v>17.85818578221549</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.711485874661673</v>
+        <v>7.527660044449913</v>
       </c>
       <c r="D17">
-        <v>7.986538323729131</v>
+        <v>16.46882622496433</v>
       </c>
       <c r="E17">
-        <v>9.921435539764783</v>
+        <v>13.68898902917092</v>
       </c>
       <c r="F17">
-        <v>63.85908442393978</v>
+        <v>90.56242376357486</v>
       </c>
       <c r="G17">
-        <v>3.727493358070421</v>
+        <v>1.785558414787914</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>47.23167218032239</v>
+        <v>68.67923946231051</v>
       </c>
       <c r="J17">
-        <v>8.575974463772743</v>
+        <v>4.517427556490017</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>38.6802851237337</v>
+        <v>58.73971357787286</v>
       </c>
       <c r="N17">
-        <v>17.46326561006358</v>
+        <v>17.66006346946893</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.710538690347814</v>
+        <v>7.353536112838574</v>
       </c>
       <c r="D18">
-        <v>7.892178908713403</v>
+        <v>16.1336335544728</v>
       </c>
       <c r="E18">
-        <v>9.870177422810539</v>
+        <v>13.47598046577568</v>
       </c>
       <c r="F18">
-        <v>63.65105249838352</v>
+        <v>88.66208852595561</v>
       </c>
       <c r="G18">
-        <v>3.729718552006556</v>
+        <v>1.799174101727642</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>47.06694969029641</v>
+        <v>67.22395859275593</v>
       </c>
       <c r="J18">
-        <v>8.582362434580162</v>
+        <v>4.542905380068958</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>38.45807660200021</v>
+        <v>57.70311789818036</v>
       </c>
       <c r="N18">
-        <v>17.42761594216913</v>
+        <v>17.5447570636409</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.710271282364772</v>
+        <v>7.295900327088176</v>
       </c>
       <c r="D19">
-        <v>7.859989635469742</v>
+        <v>16.02211096346012</v>
       </c>
       <c r="E19">
-        <v>9.852753631394551</v>
+        <v>13.40496205212517</v>
       </c>
       <c r="F19">
-        <v>63.58098822318007</v>
+        <v>88.0312116934777</v>
       </c>
       <c r="G19">
-        <v>3.730476217997278</v>
+        <v>1.803668459948334</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>47.01143029487923</v>
+        <v>66.74042924386018</v>
       </c>
       <c r="J19">
-        <v>8.584539524739426</v>
+        <v>4.551430013198043</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>38.38269172085024</v>
+        <v>57.35601081918315</v>
       </c>
       <c r="N19">
-        <v>17.41556846989702</v>
+        <v>17.50551450285413</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.711686556701074</v>
+        <v>7.560570727599041</v>
       </c>
       <c r="D20">
-        <v>8.003887816747216</v>
+        <v>16.53189662017527</v>
       </c>
       <c r="E20">
-        <v>9.930889439548183</v>
+        <v>13.72899389083368</v>
       </c>
       <c r="F20">
-        <v>63.89776192471783</v>
+        <v>90.92065398230015</v>
       </c>
       <c r="G20">
-        <v>3.727083541025959</v>
+        <v>1.782978504551578</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>47.26227773222584</v>
+        <v>68.95337604015296</v>
       </c>
       <c r="J20">
-        <v>8.574798947179001</v>
+        <v>4.51265932003015</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>38.72133852139552</v>
+        <v>58.93363020607085</v>
       </c>
       <c r="N20">
-        <v>17.46987421460592</v>
+        <v>17.68130168957491</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.720188264415562</v>
+        <v>8.59120313925323</v>
       </c>
       <c r="D21">
-        <v>8.470655362299361</v>
+        <v>18.46710123255416</v>
       </c>
       <c r="E21">
-        <v>10.18851623450745</v>
+        <v>14.94489180930428</v>
       </c>
       <c r="F21">
-        <v>64.9872512121387</v>
+        <v>101.985599711717</v>
       </c>
       <c r="G21">
-        <v>3.715978041177951</v>
+        <v>1.701110875029402</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.12208802322039</v>
+        <v>77.39461404230606</v>
       </c>
       <c r="J21">
-        <v>8.543057615999636</v>
+        <v>4.371558907259852</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>39.84779223248614</v>
+        <v>64.70077453707536</v>
       </c>
       <c r="N21">
-        <v>17.65379207261597</v>
+        <v>18.25216131115483</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.728582211324252</v>
+        <v>9.505577516017212</v>
       </c>
       <c r="D22">
-        <v>8.763313026046434</v>
+        <v>20.13185922732723</v>
       </c>
       <c r="E22">
-        <v>10.35310366098413</v>
+        <v>15.97461735059785</v>
       </c>
       <c r="F22">
-        <v>65.71722990792533</v>
+        <v>111.5439569791575</v>
       </c>
       <c r="G22">
-        <v>3.708935713638599</v>
+        <v>1.626700459858523</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>48.69599006405193</v>
+        <v>84.65519582710172</v>
       </c>
       <c r="J22">
-        <v>8.523042191586896</v>
+        <v>4.261911671268209</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>40.57441566408314</v>
+        <v>69.35555590124444</v>
       </c>
       <c r="N22">
-        <v>17.77492164221672</v>
+        <v>18.59414175321468</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.723839717157949</v>
+        <v>8.978107076837945</v>
       </c>
       <c r="D23">
-        <v>8.608247243178429</v>
+        <v>19.17655572047113</v>
       </c>
       <c r="E23">
-        <v>10.26561501816244</v>
+        <v>15.38531906627572</v>
       </c>
       <c r="F23">
-        <v>65.32603944993664</v>
+        <v>106.0609025456086</v>
       </c>
       <c r="G23">
-        <v>3.712674785206808</v>
+        <v>1.669828584605564</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.3886382449435</v>
+        <v>80.49305781977793</v>
       </c>
       <c r="J23">
-        <v>8.533658403522841</v>
+        <v>4.323164617996577</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>40.18754843694864</v>
+        <v>66.72110027937276</v>
       </c>
       <c r="N23">
-        <v>17.71019767115853</v>
+        <v>18.41664048455507</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.711594859316108</v>
+        <v>7.545664213855138</v>
       </c>
       <c r="D24">
-        <v>7.996048604755752</v>
+        <v>16.50334054072805</v>
       </c>
       <c r="E24">
-        <v>9.926616662129634</v>
+        <v>13.71088404529505</v>
       </c>
       <c r="F24">
-        <v>63.88026945490775</v>
+        <v>90.75843503275183</v>
       </c>
       <c r="G24">
-        <v>3.727268739337976</v>
+        <v>1.78414730099053</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>47.24843667534476</v>
+        <v>68.82924512305677</v>
       </c>
       <c r="J24">
-        <v>8.575330131706076</v>
+        <v>4.514817156693465</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>38.70278140325364</v>
+        <v>58.84587622114261</v>
       </c>
       <c r="N24">
-        <v>17.46688611440916</v>
+        <v>17.67170415788629</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.710272028456379</v>
+        <v>6.504917464823986</v>
       </c>
       <c r="D25">
-        <v>7.282127455571493</v>
+        <v>14.20394803257857</v>
       </c>
       <c r="E25">
-        <v>9.545603500828873</v>
+        <v>12.23742231372001</v>
       </c>
       <c r="F25">
-        <v>62.40304315440495</v>
+        <v>77.86828686166096</v>
       </c>
       <c r="G25">
-        <v>3.743955962449536</v>
+        <v>1.874394962326794</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>46.07442038084357</v>
+        <v>58.91871642756696</v>
       </c>
       <c r="J25">
-        <v>8.623445378326547</v>
+        <v>4.69288650767771</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>37.06755431529721</v>
+        <v>51.5479301108243</v>
       </c>
       <c r="N25">
-        <v>17.20944582058611</v>
+        <v>16.81334682277</v>
       </c>
       <c r="O25">
         <v>0</v>
